--- a/database.xlsx
+++ b/database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>identity</t>
@@ -471,12 +471,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>柯彥輝</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
@@ -498,12 +498,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>簡毓潔</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,12 +525,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>徐卉宣</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
@@ -552,12 +552,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>黃昭祺</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
@@ -579,12 +579,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>尹采晴</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
@@ -606,12 +606,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>杜沁嫻</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>洪純女</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
@@ -660,12 +660,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>洪怡青</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
@@ -687,12 +687,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>廖友豪</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
@@ -714,12 +714,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>劉真芳</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
@@ -741,12 +741,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>樂秀霞</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
@@ -768,12 +768,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>徐敏銓</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
@@ -795,12 +795,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>祝國強</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
@@ -820,6 +820,19 @@
       <c r="G14" t="n">
         <v>479203</v>
       </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -250,10 +250,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市桃園區介壽路22號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市桃園區紹興街28巷七號三樓</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,10 +342,6 @@
   </si>
   <si>
     <t>台北兒福</t>
-  </si>
-  <si>
-    <t>台北兒福中心公益捐款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>台北兒福</t>
@@ -754,7 +746,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,7 +794,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,7 +811,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,13 +825,13 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -853,7 +845,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,7 +862,7 @@
         <v>70</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,157 +876,160 @@
         <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>98</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
@@ -1045,118 +1040,88 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" t="s">
-        <v>101</v>
+      <c r="F25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="E28" s="3"/>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>remark</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>簡毓潔</t>
@@ -361,6 +358,53 @@
   <si>
     <t>兒福捐款</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmc@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yichi223@gmail.com</t>
+  </si>
+  <si>
+    <t>peiling70076@gmail.com</t>
+  </si>
+  <si>
+    <t>i-ching@sintong.com</t>
+  </si>
+  <si>
+    <t>jane2198@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yami9632@gmail.com</t>
+  </si>
+  <si>
+    <t>pcy1024@gmail.com</t>
+  </si>
+  <si>
+    <t>a297267300@gmail.com</t>
+  </si>
+  <si>
+    <t>snoopyun04@hotmail.com</t>
+  </si>
+  <si>
+    <t>hyc@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>howard1107@hotmail.com</t>
+  </si>
+  <si>
+    <t>L0987747048@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhengyangray@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -745,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,349 +821,388 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="E28" s="3"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>peiling70076@gmail.com</t>
   </si>
   <si>
-    <t>陳桂芬</t>
-  </si>
-  <si>
     <t>S092017001</t>
   </si>
   <si>
@@ -431,6 +428,94 @@
   </si>
   <si>
     <t>company email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharon50224@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j221404518@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳庭茜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evelyn@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3688x001@yahoo.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phil@aimedicine.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chiang@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1B@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chun@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>markrock21335@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chihsiencheng@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yensintong@yahoo.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinjoey819@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaydanial@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebecca@sintong.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivienneing@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920550881</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0933124262</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S100107001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S094019001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968989089</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -810,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -848,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,381 +1001,444 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
+      <c r="G5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
+      <c r="H12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>60</v>
+      <c r="G13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>65</v>
+      <c r="G14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
-        <v>69</v>
+      <c r="H16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
-        <v>77</v>
+      <c r="H18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
-        <v>90</v>
+      <c r="H21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="F22" t="s">
-        <v>93</v>
+      <c r="G22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
-        <v>95</v>
+      <c r="H23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>98</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
         <v>99</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>104</v>
       </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>105</v>
-      </c>
-      <c r="G25" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" t="s">
-        <v>109</v>
+      <c r="G26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>112</v>
+      <c r="G27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>114</v>
+      <c r="G28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>120</v>
+      <c r="H29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>123</v>
+      <c r="G30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>name</t>
   </si>
@@ -516,6 +516,42 @@
   </si>
   <si>
     <t>0968989089</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳佳吟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S104221001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lisa80423@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林毓紋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917393063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylin88396@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>康智淵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S108124001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a0928900469@gmail.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +932,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1442,33 +1478,60 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E31" s="3"/>
+      <c r="G31" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E40" s="3"/>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -552,6 +552,50 @@
   </si>
   <si>
     <t>a0928900469@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H123122034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q121519348</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F225117924</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>J222825397</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F120927866</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F229212037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H222009963</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H223965264</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A122450416</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H124699098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S223941511</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +976,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1169,9 @@
       <c r="B9" t="s">
         <v>45</v>
       </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
@@ -1142,6 +1189,9 @@
       <c r="B10" t="s">
         <v>50</v>
       </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
       <c r="D10" t="s">
         <v>109</v>
       </c>
@@ -1176,6 +1226,9 @@
       <c r="B12" t="s">
         <v>57</v>
       </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
       <c r="H12" t="s">
         <v>132</v>
       </c>
@@ -1198,6 +1251,9 @@
       <c r="B14" t="s">
         <v>61</v>
       </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="s">
         <v>62</v>
       </c>
@@ -1218,6 +1274,9 @@
       <c r="B15" t="s">
         <v>66</v>
       </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="s">
         <v>125</v>
       </c>
@@ -1342,6 +1401,9 @@
       <c r="B23" t="s">
         <v>94</v>
       </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
       <c r="H23" t="s">
         <v>140</v>
       </c>
@@ -1396,6 +1458,9 @@
       <c r="B26" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
       <c r="D26" t="s">
         <v>107</v>
       </c>
@@ -1430,6 +1495,9 @@
       <c r="B28" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
       <c r="D28" t="s">
         <v>115</v>
       </c>
@@ -1484,6 +1552,9 @@
       <c r="B31" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="G31" t="s">
         <v>153</v>
@@ -1496,6 +1567,9 @@
       <c r="B32" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="G32" t="s">
         <v>156</v>
@@ -1507,6 +1581,9 @@
       </c>
       <c r="B33" s="3" t="s">
         <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
       </c>
       <c r="E33" s="3"/>
       <c r="G33" t="s">

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="176">
   <si>
     <t>name</t>
   </si>
@@ -596,6 +596,26 @@
   </si>
   <si>
     <t>S223941511</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F226740007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T220074630</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H222475127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N124314067</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q121525195</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -975,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1294,6 +1314,9 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="H16" t="s">
         <v>136</v>
       </c>
@@ -1325,6 +1348,9 @@
       <c r="B18" t="s">
         <v>76</v>
       </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="H18" t="s">
         <v>137</v>
       </c>
@@ -1376,6 +1402,9 @@
       <c r="B21" t="s">
         <v>89</v>
       </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
       <c r="H21" t="s">
         <v>138</v>
       </c>
@@ -1515,6 +1544,9 @@
       <c r="B29" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
       <c r="D29" t="s">
         <v>118</v>
       </c>
@@ -1534,6 +1566,9 @@
       </c>
       <c r="B30" s="3" t="s">
         <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
       </c>
       <c r="D30" t="s">
         <v>123</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="182">
   <si>
     <t>name</t>
   </si>
@@ -630,6 +630,18 @@
   </si>
   <si>
     <t>徐敏銓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴嘉俊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A230129182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F125683850</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1009,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1309,10 +1321,13 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
       </c>
       <c r="H13" t="s">
         <v>130</v>
@@ -1602,6 +1617,9 @@
       </c>
       <c r="C27" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
       </c>
       <c r="E27" t="s">
         <v>111</v>
